--- a/漢字（かんじ）/chi.xlsx
+++ b/漢字（かんじ）/chi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF43C23-E8A4-4336-B0DA-D77F3EDC01A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8496A29-6218-4521-B537-368ECF7A39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ち" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>ち</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -405,6 +405,14 @@
 知名度｜ちめいど
 知人｜ちじん
 知識｜ちしき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警視庁｜けいしちょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1017,6 +1025,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B19" t="s">
         <v>4</v>
       </c>
@@ -1028,6 +1039,12 @@
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -1150,7 +1167,10 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>59</v>
       </c>

--- a/漢字（かんじ）/chi.xlsx
+++ b/漢字（かんじ）/chi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\漢字（かんじ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8496A29-6218-4521-B537-368ECF7A39B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977A890F-C618-4095-95AF-1A283CBB60AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
   <si>
     <t>ち</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>緊張｜きんちょう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +225,6 @@
   </si>
   <si>
     <t>頂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>頂上｜ちょうじょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -309,10 +301,6 @@
   <si>
     <t>新潮｜しんちょう
 潮流｜ちょうりゅう</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意｜ちゅうい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -413,6 +401,30 @@
   </si>
   <si>
     <t>警視庁｜けいしちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意｜ちゅうい
+注文｜ちゅうもん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊張｜きんちょう
+出張｜しゅっちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>頂上｜ちょうじょう
+頂戴｜ちょうだい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>貯金｜ちょきん
+貯金利息｜ちょきんりそく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -777,22 +789,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.45">
@@ -803,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -826,13 +838,13 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="108" x14ac:dyDescent="0.45">
@@ -843,16 +855,16 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -860,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.45">
@@ -880,16 +892,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.45">
@@ -897,68 +909,74 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.45">
@@ -966,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="94.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -988,7 +1006,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
@@ -996,10 +1014,10 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1007,10 +1025,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1018,13 +1036,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1050,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1040,10 +1058,10 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.45">
@@ -1054,10 +1072,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1065,18 +1083,18 @@
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1098,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="126" x14ac:dyDescent="0.45">
@@ -1109,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1120,7 +1138,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1131,7 +1149,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1139,10 +1157,10 @@
         <v>6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.45">
@@ -1150,10 +1168,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.45">
@@ -1161,10 +1179,10 @@
         <v>6</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.45">
@@ -1172,10 +1190,10 @@
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
